--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/化学工业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/化学工业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,232 +523,174 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.094274396603959</v>
+        <v>0.09748381412125399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.050455187153544</v>
+        <v>0.052690449940791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.106418752366561</v>
+        <v>0.125216346987859</v>
       </c>
       <c r="E2" t="n">
-        <v>0.828199181932151</v>
+        <v>0.817709228267181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002906958986055</v>
+        <v>0.003507590993911</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04786544069317</v>
+        <v>0.059789374494793</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08301625475284199</v>
+        <v>0.09004467187617</v>
       </c>
       <c r="I2" t="n">
-        <v>0.236948445578366</v>
+        <v>0.234027543911853</v>
       </c>
       <c r="J2" t="n">
-        <v>0.179639651890158</v>
+        <v>0.167126379489234</v>
       </c>
       <c r="K2" t="n">
-        <v>0.217186528642495</v>
+        <v>0.203989504942919</v>
       </c>
       <c r="L2" t="n">
-        <v>0.049890043764487</v>
+        <v>0.052071048568618</v>
       </c>
       <c r="M2" t="n">
-        <v>0.112358597852942</v>
+        <v>0.127481570059963</v>
       </c>
       <c r="N2" t="n">
-        <v>0.286839279476301</v>
+        <v>0.309218610361356</v>
       </c>
       <c r="O2" t="n">
-        <v>0.163541027650891</v>
+        <v>0.156842241051509</v>
       </c>
       <c r="P2" t="n">
-        <v>0.059725430692858</v>
+        <v>0.069407032381192</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.029821572840361</v>
+        <v>0.035527122924314</v>
       </c>
       <c r="R2" t="n">
-        <v>0.065729391299836</v>
+        <v>0.07590404250062099</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09748381412125399</v>
+        <v>0.059585260467732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.052690449940791</v>
+        <v>0.053868778294021</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125216346987859</v>
+        <v>0.138240003818643</v>
       </c>
       <c r="E3" t="n">
-        <v>0.817709228267181</v>
+        <v>0.867993951191135</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003507590993911</v>
+        <v>0.008076869043462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.059789374494793</v>
+        <v>0.07809051241268999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09004467187617</v>
+        <v>0.111479402281554</v>
       </c>
       <c r="I3" t="n">
-        <v>0.234027543911853</v>
+        <v>0.141254578552868</v>
       </c>
       <c r="J3" t="n">
-        <v>0.167126379489234</v>
+        <v>0.169609620227201</v>
       </c>
       <c r="K3" t="n">
-        <v>0.203989504942919</v>
+        <v>0.169675821406206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.052071048568618</v>
+        <v>0.062032128171709</v>
       </c>
       <c r="M3" t="n">
-        <v>0.127481570059963</v>
+        <v>0.114453640576297</v>
       </c>
       <c r="N3" t="n">
-        <v>0.309218610361356</v>
+        <v>0.270647949310686</v>
       </c>
       <c r="O3" t="n">
-        <v>0.156842241051509</v>
+        <v>0.119388079912766</v>
       </c>
       <c r="P3" t="n">
-        <v>0.069407032381192</v>
+        <v>0.093134729271804</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.035527122924314</v>
+        <v>0.025996947039335</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07590404250062099</v>
+        <v>0.097522653875473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.059585260467732</v>
+        <v>0.065417755224876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.053868778294021</v>
+        <v>0.065560705678975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.138240003818643</v>
+        <v>0.185652133988766</v>
       </c>
       <c r="E4" t="n">
-        <v>0.867993951191135</v>
+        <v>0.838465166984345</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008076869043462</v>
+        <v>0.009045326901369</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07809051241268999</v>
+        <v>0.117478772916849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.111479402281554</v>
+        <v>0.144848852747148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.141254578552868</v>
+        <v>0.173642644999579</v>
       </c>
       <c r="J4" t="n">
-        <v>0.169609620227201</v>
+        <v>0.145458048841142</v>
       </c>
       <c r="K4" t="n">
-        <v>0.169675821406206</v>
+        <v>0.175731149967216</v>
       </c>
       <c r="L4" t="n">
-        <v>0.062032128171709</v>
+        <v>0.074957876984063</v>
       </c>
       <c r="M4" t="n">
-        <v>0.114453640576297</v>
+        <v>0.133970604333388</v>
       </c>
       <c r="N4" t="n">
-        <v>0.270647949310686</v>
+        <v>0.185969292729159</v>
       </c>
       <c r="O4" t="n">
-        <v>0.119388079912766</v>
+        <v>0.113524419623592</v>
       </c>
       <c r="P4" t="n">
-        <v>0.093134729271804</v>
+        <v>0.115169236897646</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.025996947039335</v>
+        <v>0.028023378781765</v>
       </c>
       <c r="R4" t="n">
-        <v>0.097522653875473</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.065417755224876</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.065560705678975</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.185652133988766</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.838465166984345</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.009045326901369</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.117478772916849</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.144848852747148</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.173642644999579</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.145458048841142</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.175731149967216</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.074957876984063</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.133970604333388</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.185969292729159</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.113524419623592</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.115169236897646</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.028023378781765</v>
-      </c>
-      <c r="R5" t="n">
         <v>0.148709603266369</v>
       </c>
     </row>
